--- a/Data/sugarbeet_org_ws.xlsx
+++ b/Data/sugarbeet_org_ws.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle3!$F$1:$F$1030</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle3!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9584" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="179">
   <si>
     <t>farmingType</t>
   </si>
@@ -620,7 +620,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,14 +922,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z1030"/>
+  <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1001" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1034" sqref="V1034"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>186632</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>186633</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>186634</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>186635</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>186636</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>186637</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>186638</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>186639</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>186640</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>186641</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>186642</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>186643</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>186644</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>186645</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>186646</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>186647</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>186648</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>186649</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>186650</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>186651</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>186652</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>186777</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>186778</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>186779</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>186780</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>186781</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>186782</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>186783</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>186784</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>186785</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>186786</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>186787</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>186788</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>186789</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>186790</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>186791</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>186792</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>186793</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>186794</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>186795</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>186796</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>186797</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>186922</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>186923</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>186924</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>186925</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>186926</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>186927</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>186928</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>186929</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>186930</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>186931</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>186932</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>186933</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>186934</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>186935</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>186936</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>186937</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>186938</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>186939</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>186940</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>186941</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>186942</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>187070</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>187071</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>187072</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>187073</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>187074</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>187075</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>187076</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>187077</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>187078</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>187079</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>187080</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>187081</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>187082</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>187083</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>187084</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>187085</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>187086</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>187087</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>187088</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>187089</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>187090</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>187091</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>187216</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>187217</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>187218</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>187219</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>187220</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>187221</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>187222</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>187223</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>187224</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>187225</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>187226</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>187227</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>187228</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>187229</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>187230</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>187231</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>187232</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>187233</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>187234</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>187235</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>187357</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>187358</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>187359</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>187360</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>187361</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>187362</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>187363</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>187364</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>187365</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>187366</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>187367</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>187368</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>187369</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>187370</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>187371</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>187372</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>187373</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>187374</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>187375</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>187376</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>187377</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>187502</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>187503</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>187504</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>187505</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>187506</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>187507</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>187508</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>187509</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>187510</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>187511</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>187512</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>187513</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>187514</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>187515</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>187516</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>187517</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>187518</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>187519</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>187520</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>187521</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>187522</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>196782</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>196783</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>196784</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>196785</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>196786</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>196787</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>196788</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>196789</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>196790</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>196791</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>196792</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>196793</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>196794</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>196795</v>
       </c>
@@ -21838,7 +21838,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>196796</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>196797</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>196798</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>196799</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>196800</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>196801</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>196802</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>196927</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>196928</v>
       </c>
@@ -22441,7 +22441,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>196929</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>196930</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>196931</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>196932</v>
       </c>
@@ -22707,7 +22707,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>196933</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>196934</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>196935</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>196936</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>196937</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>196938</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>196939</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>196940</v>
       </c>
@@ -23257,7 +23257,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>196941</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>196942</v>
       </c>
@@ -23399,7 +23399,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>196943</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>196944</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>196945</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>196946</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>196947</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>197072</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>197073</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>197074</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>197075</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>197076</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>197077</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>197078</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>197079</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>197080</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>197081</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>197082</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>197083</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>197084</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>197085</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>197086</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>197087</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>197088</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>197089</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>197090</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>197091</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>197092</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>197220</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>197221</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>197222</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="362" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>197223</v>
       </c>
@@ -25421,7 +25421,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="363" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>197224</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>197225</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>197226</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="366" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>197227</v>
       </c>
@@ -25687,7 +25687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="367" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>197228</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="368" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>197229</v>
       </c>
@@ -25811,7 +25811,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="369" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>197230</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="370" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>197231</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="371" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>197232</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="372" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>197233</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="373" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>197234</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="374" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>197235</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="375" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>197236</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="376" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>197237</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="377" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>197238</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="378" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>197239</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="379" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>197240</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="380" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>197241</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="381" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>197366</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="382" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>197367</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="383" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>197368</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="384" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>197369</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="385" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>197370</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="386" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>197371</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="387" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>197372</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="388" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>197373</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="389" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>197374</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="390" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>197375</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="391" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>197376</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="392" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>197377</v>
       </c>
@@ -27443,7 +27443,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="393" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>197378</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="394" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>197379</v>
       </c>
@@ -27585,7 +27585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="395" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>197380</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="396" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>197381</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="397" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>197382</v>
       </c>
@@ -27780,7 +27780,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="398" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>197383</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="399" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>197384</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="400" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>197385</v>
       </c>
@@ -27975,7 +27975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="401" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>197507</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="402" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>197508</v>
       </c>
@@ -28117,7 +28117,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="403" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>197509</v>
       </c>
@@ -28188,7 +28188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="404" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>197510</v>
       </c>
@@ -28259,7 +28259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="405" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>197511</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="406" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>197512</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="407" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>197513</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="408" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>197514</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="409" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>197515</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="410" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>197516</v>
       </c>
@@ -28649,7 +28649,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="411" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>197517</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="412" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>197518</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="413" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>197519</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="414" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>197520</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="415" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>197521</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="416" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>197522</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="417" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>197523</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="418" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>197524</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="419" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>197525</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="420" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>197526</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="421" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>197527</v>
       </c>
@@ -29394,7 +29394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="422" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>197652</v>
       </c>
@@ -29465,7 +29465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="423" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>197653</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="424" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>197654</v>
       </c>
@@ -29607,7 +29607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="425" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>197655</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="426" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>197656</v>
       </c>
@@ -29749,7 +29749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="427" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>197657</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="428" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>197658</v>
       </c>
@@ -29873,7 +29873,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="429" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>197659</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="430" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>197660</v>
       </c>
@@ -29997,7 +29997,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="431" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>197661</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="432" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>197662</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="433" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>197663</v>
       </c>
@@ -30210,7 +30210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="434" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>197664</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="435" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>197665</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="436" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>197666</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="437" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>197667</v>
       </c>
@@ -30494,7 +30494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="438" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>197668</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="439" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>197669</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="440" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>197670</v>
       </c>
@@ -30689,7 +30689,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="441" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>197671</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="442" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>197672</v>
       </c>
@@ -30813,7 +30813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="443" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>201857</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="444" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>201858</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="445" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>201859</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="446" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>201860</v>
       </c>
@@ -31097,7 +31097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="447" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>201861</v>
       </c>
@@ -31168,7 +31168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="448" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>201862</v>
       </c>
@@ -31221,7 +31221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="449" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>201863</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="450" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>201864</v>
       </c>
@@ -31363,7 +31363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="451" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>201865</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="452" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>201866</v>
       </c>
@@ -31487,7 +31487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="453" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>201867</v>
       </c>
@@ -31558,7 +31558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="454" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>201868</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="455" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>201869</v>
       </c>
@@ -31700,7 +31700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="456" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>201870</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="457" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>201871</v>
       </c>
@@ -31842,7 +31842,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="458" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>201872</v>
       </c>
@@ -31913,7 +31913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="459" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>201873</v>
       </c>
@@ -31966,7 +31966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="460" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>201874</v>
       </c>
@@ -32037,7 +32037,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="461" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>201875</v>
       </c>
@@ -32108,7 +32108,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="462" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>201876</v>
       </c>
@@ -32161,7 +32161,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>201877</v>
       </c>
@@ -32232,7 +32232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="464" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>202002</v>
       </c>
@@ -32303,7 +32303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="465" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>202003</v>
       </c>
@@ -32374,7 +32374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="466" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>202004</v>
       </c>
@@ -32445,7 +32445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="467" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>202005</v>
       </c>
@@ -32516,7 +32516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="468" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>202006</v>
       </c>
@@ -32587,7 +32587,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="469" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>202007</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="470" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>202008</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="471" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>202009</v>
       </c>
@@ -32782,7 +32782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="472" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>202010</v>
       </c>
@@ -32835,7 +32835,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="473" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>202011</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="474" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>202012</v>
       </c>
@@ -32977,7 +32977,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="475" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>202013</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="476" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>202014</v>
       </c>
@@ -33119,7 +33119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="477" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>202015</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="478" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>202016</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="479" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>202017</v>
       </c>
@@ -33332,7 +33332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="480" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>202018</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="481" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>202019</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="482" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>202020</v>
       </c>
@@ -33527,7 +33527,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="483" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>202021</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="484" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>202022</v>
       </c>
@@ -33651,7 +33651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="485" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>202147</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="486" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>202148</v>
       </c>
@@ -33793,7 +33793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="487" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>202149</v>
       </c>
@@ -33864,7 +33864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="488" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>202150</v>
       </c>
@@ -33935,7 +33935,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="489" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>202151</v>
       </c>
@@ -34006,7 +34006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="490" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>202152</v>
       </c>
@@ -34059,7 +34059,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="491" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>202153</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="492" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>202154</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="493" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>202155</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="494" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>202156</v>
       </c>
@@ -34325,7 +34325,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="495" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>202157</v>
       </c>
@@ -34396,7 +34396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="496" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>202158</v>
       </c>
@@ -34467,7 +34467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>202159</v>
       </c>
@@ -34538,7 +34538,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>202160</v>
       </c>
@@ -34609,7 +34609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>202161</v>
       </c>
@@ -34680,7 +34680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>202162</v>
       </c>
@@ -34751,7 +34751,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>202163</v>
       </c>
@@ -34804,7 +34804,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>202164</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>202165</v>
       </c>
@@ -34946,7 +34946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>202166</v>
       </c>
@@ -34999,7 +34999,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>202167</v>
       </c>
@@ -35070,7 +35070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="506" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>202295</v>
       </c>
@@ -35141,7 +35141,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>202296</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>202297</v>
       </c>
@@ -35283,7 +35283,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>202298</v>
       </c>
@@ -35354,7 +35354,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>202299</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>202300</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>202301</v>
       </c>
@@ -35549,7 +35549,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="513" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>202302</v>
       </c>
@@ -35620,7 +35620,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="514" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>202303</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="515" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>202304</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="516" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>202305</v>
       </c>
@@ -35815,7 +35815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="517" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>202306</v>
       </c>
@@ -35886,7 +35886,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="518" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>202307</v>
       </c>
@@ -35957,7 +35957,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="519" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>202308</v>
       </c>
@@ -36028,7 +36028,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="520" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>202309</v>
       </c>
@@ -36099,7 +36099,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="521" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>202310</v>
       </c>
@@ -36170,7 +36170,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="522" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>202311</v>
       </c>
@@ -36241,7 +36241,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="523" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>202312</v>
       </c>
@@ -36294,7 +36294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="524" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>202313</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="525" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>202314</v>
       </c>
@@ -36436,7 +36436,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="526" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>202315</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="527" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>202316</v>
       </c>
@@ -36560,7 +36560,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="528" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>202441</v>
       </c>
@@ -36631,7 +36631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>202442</v>
       </c>
@@ -36702,7 +36702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>202443</v>
       </c>
@@ -36773,7 +36773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>202444</v>
       </c>
@@ -36844,7 +36844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>202445</v>
       </c>
@@ -36915,7 +36915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>202446</v>
       </c>
@@ -36968,7 +36968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>202447</v>
       </c>
@@ -37039,7 +37039,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>202448</v>
       </c>
@@ -37110,7 +37110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>202449</v>
       </c>
@@ -37163,7 +37163,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>202450</v>
       </c>
@@ -37234,7 +37234,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>202451</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>202452</v>
       </c>
@@ -37376,7 +37376,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>202453</v>
       </c>
@@ -37447,7 +37447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>202454</v>
       </c>
@@ -37518,7 +37518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="542" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>202455</v>
       </c>
@@ -37589,7 +37589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="543" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>202456</v>
       </c>
@@ -37642,7 +37642,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="544" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>202457</v>
       </c>
@@ -37713,7 +37713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="545" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>202458</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="546" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>202459</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="547" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>202460</v>
       </c>
@@ -37908,7 +37908,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="548" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>202582</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="549" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>202583</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="550" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>202584</v>
       </c>
@@ -38121,7 +38121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="551" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>202585</v>
       </c>
@@ -38192,7 +38192,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="552" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>202586</v>
       </c>
@@ -38263,7 +38263,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="553" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>202587</v>
       </c>
@@ -38316,7 +38316,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="554" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>202588</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="555" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>202589</v>
       </c>
@@ -38458,7 +38458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="556" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>202590</v>
       </c>
@@ -38511,7 +38511,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="557" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>202591</v>
       </c>
@@ -38582,7 +38582,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="558" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>202592</v>
       </c>
@@ -38653,7 +38653,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="559" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>202593</v>
       </c>
@@ -38724,7 +38724,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="560" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>202594</v>
       </c>
@@ -38795,7 +38795,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="561" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>202595</v>
       </c>
@@ -38866,7 +38866,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="562" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>202596</v>
       </c>
@@ -38937,7 +38937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="563" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>202597</v>
       </c>
@@ -39008,7 +39008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="564" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>202598</v>
       </c>
@@ -39061,7 +39061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="565" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>202599</v>
       </c>
@@ -39132,7 +39132,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="566" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>202600</v>
       </c>
@@ -39185,7 +39185,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="567" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>202601</v>
       </c>
@@ -39256,7 +39256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="568" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>202602</v>
       </c>
@@ -39327,7 +39327,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="569" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>202727</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="570" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>202728</v>
       </c>
@@ -39469,7 +39469,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="571" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>202729</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="572" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>202730</v>
       </c>
@@ -39611,7 +39611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="573" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>202731</v>
       </c>
@@ -39682,7 +39682,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="574" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>202732</v>
       </c>
@@ -39735,7 +39735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="575" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>202733</v>
       </c>
@@ -39806,7 +39806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="576" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>202734</v>
       </c>
@@ -39877,7 +39877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="577" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>202735</v>
       </c>
@@ -39930,7 +39930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="578" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>202736</v>
       </c>
@@ -40001,7 +40001,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="579" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>202737</v>
       </c>
@@ -40072,7 +40072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="580" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>202738</v>
       </c>
@@ -40143,7 +40143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="581" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>202739</v>
       </c>
@@ -40214,7 +40214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="582" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>202740</v>
       </c>
@@ -40285,7 +40285,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="583" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>202741</v>
       </c>
@@ -40356,7 +40356,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="584" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>202742</v>
       </c>
@@ -40427,7 +40427,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="585" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>202743</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="586" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>202744</v>
       </c>
@@ -40551,7 +40551,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="587" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>202745</v>
       </c>
@@ -40622,7 +40622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="588" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>202746</v>
       </c>
@@ -40675,7 +40675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="589" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>202747</v>
       </c>
@@ -40746,7 +40746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="590" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>206932</v>
       </c>
@@ -40817,7 +40817,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="591" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>206933</v>
       </c>
@@ -40888,7 +40888,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="592" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>206934</v>
       </c>
@@ -40959,7 +40959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="593" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>206935</v>
       </c>
@@ -41030,7 +41030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="594" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>206936</v>
       </c>
@@ -41101,7 +41101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="595" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>206937</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="596" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>206938</v>
       </c>
@@ -41225,7 +41225,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="597" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>206939</v>
       </c>
@@ -41296,7 +41296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="598" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>206940</v>
       </c>
@@ -41349,7 +41349,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="599" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>206941</v>
       </c>
@@ -41420,7 +41420,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="600" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>206942</v>
       </c>
@@ -41491,7 +41491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="601" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>206943</v>
       </c>
@@ -41562,7 +41562,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="602" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>206944</v>
       </c>
@@ -41633,7 +41633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="603" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>206945</v>
       </c>
@@ -41704,7 +41704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="604" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>206946</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="605" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>206947</v>
       </c>
@@ -41846,7 +41846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="606" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>206948</v>
       </c>
@@ -41899,7 +41899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="607" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>206949</v>
       </c>
@@ -41970,7 +41970,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="608" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>206950</v>
       </c>
@@ -42041,7 +42041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="609" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>206951</v>
       </c>
@@ -42094,7 +42094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="610" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>206952</v>
       </c>
@@ -42165,7 +42165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="611" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>207077</v>
       </c>
@@ -42236,7 +42236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="612" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>207078</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="613" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>207079</v>
       </c>
@@ -42378,7 +42378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="614" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>207080</v>
       </c>
@@ -42449,7 +42449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="615" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>207081</v>
       </c>
@@ -42520,7 +42520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="616" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>207082</v>
       </c>
@@ -42573,7 +42573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="617" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>207083</v>
       </c>
@@ -42644,7 +42644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="618" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>207084</v>
       </c>
@@ -42715,7 +42715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="619" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>207085</v>
       </c>
@@ -42768,7 +42768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="620" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>207086</v>
       </c>
@@ -42839,7 +42839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="621" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>207087</v>
       </c>
@@ -42910,7 +42910,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="622" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>207088</v>
       </c>
@@ -42981,7 +42981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="623" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>207089</v>
       </c>
@@ -43052,7 +43052,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="624" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>207090</v>
       </c>
@@ -43123,7 +43123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="625" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>207091</v>
       </c>
@@ -43194,7 +43194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="626" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>207092</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="627" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>207093</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="628" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>207094</v>
       </c>
@@ -43389,7 +43389,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="629" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>207095</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="630" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>207096</v>
       </c>
@@ -43513,7 +43513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="631" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>207097</v>
       </c>
@@ -43584,7 +43584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="632" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>207222</v>
       </c>
@@ -43655,7 +43655,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="633" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>207223</v>
       </c>
@@ -43726,7 +43726,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="634" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>207224</v>
       </c>
@@ -43797,7 +43797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="635" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>207225</v>
       </c>
@@ -43868,7 +43868,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="636" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>207226</v>
       </c>
@@ -43939,7 +43939,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="637" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>207227</v>
       </c>
@@ -43992,7 +43992,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="638" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>207228</v>
       </c>
@@ -44063,7 +44063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="639" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>207229</v>
       </c>
@@ -44134,7 +44134,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="640" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>207230</v>
       </c>
@@ -44187,7 +44187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="641" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>207231</v>
       </c>
@@ -44258,7 +44258,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="642" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>207232</v>
       </c>
@@ -44329,7 +44329,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="643" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>207233</v>
       </c>
@@ -44400,7 +44400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="644" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>207234</v>
       </c>
@@ -44471,7 +44471,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="645" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>207235</v>
       </c>
@@ -44542,7 +44542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="646" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>207236</v>
       </c>
@@ -44613,7 +44613,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="647" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>207237</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="648" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>207238</v>
       </c>
@@ -44737,7 +44737,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="649" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>207239</v>
       </c>
@@ -44808,7 +44808,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="650" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>207240</v>
       </c>
@@ -44879,7 +44879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="651" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>207241</v>
       </c>
@@ -44932,7 +44932,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="652" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>207242</v>
       </c>
@@ -45003,7 +45003,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="653" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>207370</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="654" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>207371</v>
       </c>
@@ -45145,7 +45145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="655" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>207372</v>
       </c>
@@ -45216,7 +45216,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="656" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>207373</v>
       </c>
@@ -45287,7 +45287,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="657" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>207374</v>
       </c>
@@ -45358,7 +45358,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="658" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>207375</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="659" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>207376</v>
       </c>
@@ -45482,7 +45482,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="660" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>207377</v>
       </c>
@@ -45553,7 +45553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="661" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>207378</v>
       </c>
@@ -45606,7 +45606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="662" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>207379</v>
       </c>
@@ -45677,7 +45677,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="663" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>207380</v>
       </c>
@@ -45748,7 +45748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="664" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>207381</v>
       </c>
@@ -45819,7 +45819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="665" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>207382</v>
       </c>
@@ -45890,7 +45890,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="666" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>207383</v>
       </c>
@@ -45961,7 +45961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="667" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>207384</v>
       </c>
@@ -46032,7 +46032,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="668" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>207385</v>
       </c>
@@ -46103,7 +46103,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="669" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>207386</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="670" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>207387</v>
       </c>
@@ -46227,7 +46227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="671" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>207388</v>
       </c>
@@ -46298,7 +46298,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="672" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>207389</v>
       </c>
@@ -46369,7 +46369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="673" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>207390</v>
       </c>
@@ -46422,7 +46422,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="674" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>207391</v>
       </c>
@@ -46493,7 +46493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="675" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>207516</v>
       </c>
@@ -46564,7 +46564,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="676" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>207517</v>
       </c>
@@ -46635,7 +46635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="677" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>207518</v>
       </c>
@@ -46706,7 +46706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="678" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>207519</v>
       </c>
@@ -46777,7 +46777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="679" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>207520</v>
       </c>
@@ -46848,7 +46848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="680" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>207521</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="681" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>207522</v>
       </c>
@@ -46972,7 +46972,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="682" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>207523</v>
       </c>
@@ -47043,7 +47043,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="683" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>207524</v>
       </c>
@@ -47096,7 +47096,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="684" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>207525</v>
       </c>
@@ -47167,7 +47167,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="685" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>207526</v>
       </c>
@@ -47238,7 +47238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="686" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>207527</v>
       </c>
@@ -47309,7 +47309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="687" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>207528</v>
       </c>
@@ -47380,7 +47380,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="688" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>207529</v>
       </c>
@@ -47451,7 +47451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="689" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>207530</v>
       </c>
@@ -47522,7 +47522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="690" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>207531</v>
       </c>
@@ -47575,7 +47575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="691" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>207532</v>
       </c>
@@ -47646,7 +47646,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="692" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>207533</v>
       </c>
@@ -47717,7 +47717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="693" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>207534</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="694" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>207535</v>
       </c>
@@ -47841,7 +47841,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="695" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>207657</v>
       </c>
@@ -47912,7 +47912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="696" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>207658</v>
       </c>
@@ -47983,7 +47983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="697" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>207659</v>
       </c>
@@ -48054,7 +48054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="698" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>207660</v>
       </c>
@@ -48125,7 +48125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="699" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>207661</v>
       </c>
@@ -48196,7 +48196,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="700" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>207662</v>
       </c>
@@ -48249,7 +48249,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="701" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>207663</v>
       </c>
@@ -48320,7 +48320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="702" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>207664</v>
       </c>
@@ -48391,7 +48391,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="703" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>207665</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="704" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>207666</v>
       </c>
@@ -48515,7 +48515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="705" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>207667</v>
       </c>
@@ -48586,7 +48586,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="706" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>207668</v>
       </c>
@@ -48657,7 +48657,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="707" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>207669</v>
       </c>
@@ -48728,7 +48728,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="708" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>207670</v>
       </c>
@@ -48799,7 +48799,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="709" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>207671</v>
       </c>
@@ -48870,7 +48870,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="710" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>207672</v>
       </c>
@@ -48941,7 +48941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="711" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>207673</v>
       </c>
@@ -48994,7 +48994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="712" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>207674</v>
       </c>
@@ -49065,7 +49065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="713" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>207675</v>
       </c>
@@ -49136,7 +49136,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="714" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>207676</v>
       </c>
@@ -49189,7 +49189,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="715" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>207677</v>
       </c>
@@ -49260,7 +49260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="716" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>207802</v>
       </c>
@@ -49331,7 +49331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="717" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>207803</v>
       </c>
@@ -49402,7 +49402,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="718" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>207804</v>
       </c>
@@ -49473,7 +49473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="719" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>207805</v>
       </c>
@@ -49544,7 +49544,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="720" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>207806</v>
       </c>
@@ -49615,7 +49615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="721" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>207807</v>
       </c>
@@ -49668,7 +49668,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="722" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>207808</v>
       </c>
@@ -49739,7 +49739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="723" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>207809</v>
       </c>
@@ -49810,7 +49810,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="724" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>207810</v>
       </c>
@@ -49863,7 +49863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="725" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>207811</v>
       </c>
@@ -49934,7 +49934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="726" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>207812</v>
       </c>
@@ -50005,7 +50005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="727" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>207813</v>
       </c>
@@ -50076,7 +50076,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="728" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>207814</v>
       </c>
@@ -50147,7 +50147,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="729" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>207815</v>
       </c>
@@ -50218,7 +50218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="730" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>207816</v>
       </c>
@@ -50289,7 +50289,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="731" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>207817</v>
       </c>
@@ -50360,7 +50360,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="732" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>207818</v>
       </c>
@@ -50413,7 +50413,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="733" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>207819</v>
       </c>
@@ -50484,7 +50484,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="734" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>207820</v>
       </c>
@@ -50555,7 +50555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="735" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>207821</v>
       </c>
@@ -50608,7 +50608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="736" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>207822</v>
       </c>
@@ -50679,7 +50679,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="737" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>212007</v>
       </c>
@@ -50750,7 +50750,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="738" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>212008</v>
       </c>
@@ -50821,7 +50821,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="739" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>212009</v>
       </c>
@@ -50892,7 +50892,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="740" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>212010</v>
       </c>
@@ -50963,7 +50963,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="741" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>212011</v>
       </c>
@@ -51034,7 +51034,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="742" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>212012</v>
       </c>
@@ -51087,7 +51087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="743" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>212013</v>
       </c>
@@ -51158,7 +51158,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="744" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>212014</v>
       </c>
@@ -51229,7 +51229,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="745" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>212015</v>
       </c>
@@ -51282,7 +51282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="746" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>212016</v>
       </c>
@@ -51353,7 +51353,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="747" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>212017</v>
       </c>
@@ -51424,7 +51424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="748" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>212018</v>
       </c>
@@ -51495,7 +51495,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="749" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>212019</v>
       </c>
@@ -51566,7 +51566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="750" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>212020</v>
       </c>
@@ -51637,7 +51637,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="751" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>212021</v>
       </c>
@@ -51708,7 +51708,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="752" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>212022</v>
       </c>
@@ -51779,7 +51779,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="753" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>212023</v>
       </c>
@@ -51832,7 +51832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="754" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>212024</v>
       </c>
@@ -51903,7 +51903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="755" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>212025</v>
       </c>
@@ -51974,7 +51974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="756" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>212026</v>
       </c>
@@ -52027,7 +52027,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="757" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>212027</v>
       </c>
@@ -52098,7 +52098,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="758" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>212152</v>
       </c>
@@ -52169,7 +52169,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="759" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>212153</v>
       </c>
@@ -52240,7 +52240,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="760" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>212154</v>
       </c>
@@ -52311,7 +52311,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="761" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>212155</v>
       </c>
@@ -52382,7 +52382,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="762" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>212156</v>
       </c>
@@ -52453,7 +52453,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="763" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>212157</v>
       </c>
@@ -52506,7 +52506,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="764" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>212158</v>
       </c>
@@ -52577,7 +52577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="765" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>212159</v>
       </c>
@@ -52648,7 +52648,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="766" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>212160</v>
       </c>
@@ -52701,7 +52701,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="767" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>212161</v>
       </c>
@@ -52772,7 +52772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="768" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>212162</v>
       </c>
@@ -52843,7 +52843,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="769" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>212163</v>
       </c>
@@ -52914,7 +52914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="770" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>212164</v>
       </c>
@@ -52985,7 +52985,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="771" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>212165</v>
       </c>
@@ -53056,7 +53056,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="772" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>212166</v>
       </c>
@@ -53127,7 +53127,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="773" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>212167</v>
       </c>
@@ -53198,7 +53198,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="774" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>212168</v>
       </c>
@@ -53251,7 +53251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="775" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>212169</v>
       </c>
@@ -53322,7 +53322,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="776" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>212170</v>
       </c>
@@ -53393,7 +53393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="777" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>212171</v>
       </c>
@@ -53446,7 +53446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="778" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>212172</v>
       </c>
@@ -53517,7 +53517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="779" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>212297</v>
       </c>
@@ -53588,7 +53588,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="780" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>212298</v>
       </c>
@@ -53659,7 +53659,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="781" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>212299</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="782" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>212300</v>
       </c>
@@ -53801,7 +53801,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="783" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>212301</v>
       </c>
@@ -53872,7 +53872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="784" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>212302</v>
       </c>
@@ -53925,7 +53925,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="785" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>212303</v>
       </c>
@@ -53996,7 +53996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="786" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>212304</v>
       </c>
@@ -54067,7 +54067,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="787" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>212305</v>
       </c>
@@ -54120,7 +54120,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="788" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>212306</v>
       </c>
@@ -54191,7 +54191,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="789" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>212307</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="790" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>212308</v>
       </c>
@@ -54333,7 +54333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="791" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>212309</v>
       </c>
@@ -54404,7 +54404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="792" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>212310</v>
       </c>
@@ -54475,7 +54475,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="793" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>212311</v>
       </c>
@@ -54546,7 +54546,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="794" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>212312</v>
       </c>
@@ -54617,7 +54617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="795" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>212313</v>
       </c>
@@ -54670,7 +54670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="796" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>212314</v>
       </c>
@@ -54741,7 +54741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="797" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>212315</v>
       </c>
@@ -54812,7 +54812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="798" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>212316</v>
       </c>
@@ -54865,7 +54865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="799" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>212317</v>
       </c>
@@ -54936,7 +54936,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="800" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>212445</v>
       </c>
@@ -55007,7 +55007,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="801" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>212446</v>
       </c>
@@ -55078,7 +55078,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="802" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>212447</v>
       </c>
@@ -55149,7 +55149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="803" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>212448</v>
       </c>
@@ -55220,7 +55220,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="804" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>212449</v>
       </c>
@@ -55291,7 +55291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="805" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>212450</v>
       </c>
@@ -55344,7 +55344,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="806" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>212451</v>
       </c>
@@ -55415,7 +55415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="807" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>212452</v>
       </c>
@@ -55486,7 +55486,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="808" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>212453</v>
       </c>
@@ -55539,7 +55539,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="809" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>212454</v>
       </c>
@@ -55610,7 +55610,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="810" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>212455</v>
       </c>
@@ -55681,7 +55681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="811" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>212456</v>
       </c>
@@ -55752,7 +55752,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="812" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>212457</v>
       </c>
@@ -55823,7 +55823,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="813" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>212458</v>
       </c>
@@ -55894,7 +55894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="814" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>212459</v>
       </c>
@@ -55965,7 +55965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="815" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>212460</v>
       </c>
@@ -56036,7 +56036,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="816" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>212461</v>
       </c>
@@ -56107,7 +56107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="817" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>212462</v>
       </c>
@@ -56160,7 +56160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="818" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>212463</v>
       </c>
@@ -56231,7 +56231,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="819" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>212464</v>
       </c>
@@ -56302,7 +56302,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="820" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>212465</v>
       </c>
@@ -56355,7 +56355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="821" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>212466</v>
       </c>
@@ -56426,7 +56426,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="822" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>212591</v>
       </c>
@@ -56497,7 +56497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="823" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>212592</v>
       </c>
@@ -56568,7 +56568,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="824" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>212593</v>
       </c>
@@ -56639,7 +56639,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="825" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>212594</v>
       </c>
@@ -56710,7 +56710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="826" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>212595</v>
       </c>
@@ -56781,7 +56781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="827" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>212596</v>
       </c>
@@ -56834,7 +56834,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="828" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>212597</v>
       </c>
@@ -56905,7 +56905,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="829" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>212598</v>
       </c>
@@ -56976,7 +56976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="830" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>212599</v>
       </c>
@@ -57029,7 +57029,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="831" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>212600</v>
       </c>
@@ -57100,7 +57100,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="832" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>212601</v>
       </c>
@@ -57171,7 +57171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="833" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>212602</v>
       </c>
@@ -57242,7 +57242,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="834" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>212603</v>
       </c>
@@ -57313,7 +57313,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="835" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>212604</v>
       </c>
@@ -57384,7 +57384,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="836" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>212605</v>
       </c>
@@ -57455,7 +57455,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="837" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>212606</v>
       </c>
@@ -57508,7 +57508,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="838" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>212607</v>
       </c>
@@ -57579,7 +57579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="839" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>212608</v>
       </c>
@@ -57650,7 +57650,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="840" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>212609</v>
       </c>
@@ -57703,7 +57703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="841" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>212610</v>
       </c>
@@ -57774,7 +57774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="842" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>212732</v>
       </c>
@@ -57845,7 +57845,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="843" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>212733</v>
       </c>
@@ -57916,7 +57916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="844" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>212734</v>
       </c>
@@ -57987,7 +57987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="845" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>212735</v>
       </c>
@@ -58058,7 +58058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="846" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>212736</v>
       </c>
@@ -58129,7 +58129,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="847" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>212737</v>
       </c>
@@ -58182,7 +58182,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="848" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>212738</v>
       </c>
@@ -58253,7 +58253,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="849" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>212739</v>
       </c>
@@ -58324,7 +58324,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="850" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>212740</v>
       </c>
@@ -58377,7 +58377,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="851" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>212741</v>
       </c>
@@ -58448,7 +58448,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="852" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>212742</v>
       </c>
@@ -58519,7 +58519,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="853" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>212743</v>
       </c>
@@ -58590,7 +58590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="854" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>212744</v>
       </c>
@@ -58661,7 +58661,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="855" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>212745</v>
       </c>
@@ -58732,7 +58732,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="856" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>212746</v>
       </c>
@@ -58803,7 +58803,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="857" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>212747</v>
       </c>
@@ -58874,7 +58874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="858" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>212748</v>
       </c>
@@ -58927,7 +58927,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="859" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>212749</v>
       </c>
@@ -58998,7 +58998,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="860" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>212750</v>
       </c>
@@ -59069,7 +59069,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="861" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>212751</v>
       </c>
@@ -59122,7 +59122,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="862" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>212752</v>
       </c>
@@ -59193,7 +59193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="863" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>212877</v>
       </c>
@@ -59264,7 +59264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="864" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>212878</v>
       </c>
@@ -59335,7 +59335,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="865" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>212879</v>
       </c>
@@ -59406,7 +59406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="866" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>212880</v>
       </c>
@@ -59477,7 +59477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="867" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>212881</v>
       </c>
@@ -59548,7 +59548,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="868" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>212882</v>
       </c>
@@ -59601,7 +59601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="869" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>212883</v>
       </c>
@@ -59672,7 +59672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="870" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>212884</v>
       </c>
@@ -59743,7 +59743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="871" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>212885</v>
       </c>
@@ -59796,7 +59796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="872" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>212886</v>
       </c>
@@ -59867,7 +59867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="873" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>212887</v>
       </c>
@@ -59938,7 +59938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="874" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>212888</v>
       </c>
@@ -60009,7 +60009,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="875" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>212889</v>
       </c>
@@ -60080,7 +60080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="876" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>212890</v>
       </c>
@@ -60151,7 +60151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="877" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>212891</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="878" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>212892</v>
       </c>
@@ -60293,7 +60293,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="879" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>212893</v>
       </c>
@@ -60346,7 +60346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="880" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>212894</v>
       </c>
@@ -60417,7 +60417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="881" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>212895</v>
       </c>
@@ -60488,7 +60488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="882" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>212896</v>
       </c>
@@ -60541,7 +60541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="883" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>212897</v>
       </c>
@@ -60612,7 +60612,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="884" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>217082</v>
       </c>
@@ -60683,7 +60683,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="885" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>217083</v>
       </c>
@@ -60754,7 +60754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="886" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>217084</v>
       </c>
@@ -60825,7 +60825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="887" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>217085</v>
       </c>
@@ -60896,7 +60896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="888" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>217086</v>
       </c>
@@ -60967,7 +60967,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="889" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>217087</v>
       </c>
@@ -61020,7 +61020,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="890" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>217088</v>
       </c>
@@ -61091,7 +61091,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="891" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>217089</v>
       </c>
@@ -61162,7 +61162,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="892" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>217090</v>
       </c>
@@ -61215,7 +61215,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="893" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>217091</v>
       </c>
@@ -61286,7 +61286,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="894" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>217092</v>
       </c>
@@ -61357,7 +61357,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="895" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>217093</v>
       </c>
@@ -61428,7 +61428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="896" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>217094</v>
       </c>
@@ -61499,7 +61499,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="897" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>217095</v>
       </c>
@@ -61570,7 +61570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="898" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>217096</v>
       </c>
@@ -61641,7 +61641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="899" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>217097</v>
       </c>
@@ -61712,7 +61712,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="900" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>217098</v>
       </c>
@@ -61765,7 +61765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="901" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>217099</v>
       </c>
@@ -61836,7 +61836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="902" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>217100</v>
       </c>
@@ -61907,7 +61907,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="903" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>217101</v>
       </c>
@@ -61960,7 +61960,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="904" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>217102</v>
       </c>
@@ -62031,7 +62031,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="905" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>217227</v>
       </c>
@@ -62102,7 +62102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="906" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>217228</v>
       </c>
@@ -62173,7 +62173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="907" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>217229</v>
       </c>
@@ -62244,7 +62244,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="908" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>217230</v>
       </c>
@@ -62315,7 +62315,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="909" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>217231</v>
       </c>
@@ -62386,7 +62386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="910" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>217232</v>
       </c>
@@ -62439,7 +62439,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="911" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>217233</v>
       </c>
@@ -62510,7 +62510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="912" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>217234</v>
       </c>
@@ -62581,7 +62581,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="913" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>217235</v>
       </c>
@@ -62634,7 +62634,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="914" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>217236</v>
       </c>
@@ -62705,7 +62705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="915" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>217237</v>
       </c>
@@ -62776,7 +62776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="916" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>217238</v>
       </c>
@@ -62847,7 +62847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="917" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>217239</v>
       </c>
@@ -62918,7 +62918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="918" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>217240</v>
       </c>
@@ -62989,7 +62989,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="919" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>217241</v>
       </c>
@@ -63060,7 +63060,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="920" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>217242</v>
       </c>
@@ -63131,7 +63131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="921" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>217243</v>
       </c>
@@ -63184,7 +63184,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="922" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>217244</v>
       </c>
@@ -63255,7 +63255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="923" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>217245</v>
       </c>
@@ -63326,7 +63326,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="924" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>217246</v>
       </c>
@@ -63379,7 +63379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="925" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>217247</v>
       </c>
@@ -63450,7 +63450,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="926" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>217372</v>
       </c>
@@ -63521,7 +63521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="927" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>217373</v>
       </c>
@@ -63592,7 +63592,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="928" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>217374</v>
       </c>
@@ -63663,7 +63663,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="929" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>217375</v>
       </c>
@@ -63734,7 +63734,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="930" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>217376</v>
       </c>
@@ -63805,7 +63805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="931" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>217377</v>
       </c>
@@ -63858,7 +63858,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="932" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>217378</v>
       </c>
@@ -63929,7 +63929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="933" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>217379</v>
       </c>
@@ -64000,7 +64000,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="934" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>217380</v>
       </c>
@@ -64053,7 +64053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="935" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>217381</v>
       </c>
@@ -64124,7 +64124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="936" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>217382</v>
       </c>
@@ -64195,7 +64195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="937" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>217383</v>
       </c>
@@ -64266,7 +64266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="938" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>217384</v>
       </c>
@@ -64337,7 +64337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="939" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>217385</v>
       </c>
@@ -64408,7 +64408,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="940" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>217386</v>
       </c>
@@ -64479,7 +64479,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="941" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>217387</v>
       </c>
@@ -64550,7 +64550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="942" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>217388</v>
       </c>
@@ -64603,7 +64603,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="943" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>217389</v>
       </c>
@@ -64674,7 +64674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="944" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>217390</v>
       </c>
@@ -64745,7 +64745,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="945" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>217391</v>
       </c>
@@ -64798,7 +64798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="946" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>217392</v>
       </c>
@@ -64869,7 +64869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="947" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>217520</v>
       </c>
@@ -64940,7 +64940,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="948" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>217521</v>
       </c>
@@ -65011,7 +65011,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="949" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>217522</v>
       </c>
@@ -65082,7 +65082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="950" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>217523</v>
       </c>
@@ -65153,7 +65153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="951" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>217524</v>
       </c>
@@ -65224,7 +65224,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="952" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>217525</v>
       </c>
@@ -65277,7 +65277,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="953" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>217526</v>
       </c>
@@ -65348,7 +65348,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="954" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>217527</v>
       </c>
@@ -65419,7 +65419,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="955" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>217528</v>
       </c>
@@ -65472,7 +65472,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="956" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>217529</v>
       </c>
@@ -65543,7 +65543,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="957" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>217530</v>
       </c>
@@ -65614,7 +65614,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="958" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>217531</v>
       </c>
@@ -65685,7 +65685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="959" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>217532</v>
       </c>
@@ -65756,7 +65756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="960" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>217533</v>
       </c>
@@ -65827,7 +65827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="961" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>217534</v>
       </c>
@@ -65898,7 +65898,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="962" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>217535</v>
       </c>
@@ -65969,7 +65969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="963" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>217536</v>
       </c>
@@ -66040,7 +66040,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="964" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>217537</v>
       </c>
@@ -66093,7 +66093,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="965" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>217538</v>
       </c>
@@ -66164,7 +66164,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="966" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>217539</v>
       </c>
@@ -66235,7 +66235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="967" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>217540</v>
       </c>
@@ -66288,7 +66288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="968" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>217541</v>
       </c>
@@ -66359,7 +66359,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="969" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>217666</v>
       </c>
@@ -66430,7 +66430,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="970" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>217667</v>
       </c>
@@ -66501,7 +66501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="971" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>217668</v>
       </c>
@@ -66572,7 +66572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="972" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>217669</v>
       </c>
@@ -66643,7 +66643,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="973" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>217670</v>
       </c>
@@ -66714,7 +66714,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="974" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>217671</v>
       </c>
@@ -66767,7 +66767,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="975" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>217672</v>
       </c>
@@ -66838,7 +66838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="976" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>217673</v>
       </c>
@@ -66909,7 +66909,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="977" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>217674</v>
       </c>
@@ -66962,7 +66962,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="978" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>217675</v>
       </c>
@@ -67033,7 +67033,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="979" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>217676</v>
       </c>
@@ -67104,7 +67104,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="980" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>217677</v>
       </c>
@@ -67175,7 +67175,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="981" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>217678</v>
       </c>
@@ -67246,7 +67246,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="982" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>217679</v>
       </c>
@@ -67317,7 +67317,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="983" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>217680</v>
       </c>
@@ -67388,7 +67388,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="984" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>217681</v>
       </c>
@@ -67441,7 +67441,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="985" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>217682</v>
       </c>
@@ -67512,7 +67512,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="986" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>217683</v>
       </c>
@@ -67583,7 +67583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="987" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>217684</v>
       </c>
@@ -67636,7 +67636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="988" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>217685</v>
       </c>
@@ -67707,7 +67707,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="989" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>217807</v>
       </c>
@@ -67778,7 +67778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="990" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>217808</v>
       </c>
@@ -67849,7 +67849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="991" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>217809</v>
       </c>
@@ -67920,7 +67920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="992" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>217810</v>
       </c>
@@ -67991,7 +67991,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="993" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>217811</v>
       </c>
@@ -68062,7 +68062,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="994" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>217812</v>
       </c>
@@ -68115,7 +68115,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="995" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>217813</v>
       </c>
@@ -68186,7 +68186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="996" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>217814</v>
       </c>
@@ -68257,7 +68257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="997" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>217815</v>
       </c>
@@ -68310,7 +68310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="998" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>217816</v>
       </c>
@@ -68381,7 +68381,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="999" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>217817</v>
       </c>
@@ -68452,7 +68452,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1000" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>217818</v>
       </c>
@@ -68523,7 +68523,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1001" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>217819</v>
       </c>
@@ -68594,7 +68594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1002" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
         <v>217820</v>
       </c>
@@ -68665,7 +68665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1003" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
         <v>217821</v>
       </c>
@@ -68736,7 +68736,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1004" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
         <v>217822</v>
       </c>
@@ -68807,7 +68807,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1005" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>217823</v>
       </c>
@@ -68860,7 +68860,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1006" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>217824</v>
       </c>
@@ -68931,7 +68931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1007" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>217825</v>
       </c>
@@ -69002,7 +69002,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1008" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
         <v>217826</v>
       </c>
@@ -69055,7 +69055,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1009" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>217827</v>
       </c>
@@ -69126,7 +69126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1010" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>217952</v>
       </c>
@@ -69197,7 +69197,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1011" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
         <v>217953</v>
       </c>
@@ -69268,7 +69268,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1012" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
         <v>217954</v>
       </c>
@@ -69339,7 +69339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1013" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>217955</v>
       </c>
@@ -69410,7 +69410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1014" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>217956</v>
       </c>
@@ -69481,7 +69481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1015" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>217957</v>
       </c>
@@ -69534,7 +69534,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1016" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>217958</v>
       </c>
@@ -69605,7 +69605,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1017" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
         <v>217959</v>
       </c>
@@ -69676,7 +69676,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1018" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>217960</v>
       </c>
@@ -69729,7 +69729,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1019" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>217961</v>
       </c>
@@ -69800,7 +69800,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1020" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>217962</v>
       </c>
@@ -69871,7 +69871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1021" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
         <v>217963</v>
       </c>
@@ -69942,7 +69942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1022" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>217964</v>
       </c>
@@ -70013,7 +70013,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1023" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>217965</v>
       </c>
@@ -70084,7 +70084,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1024" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>217966</v>
       </c>
@@ -70155,7 +70155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1025" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>217967</v>
       </c>
@@ -70226,7 +70226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1026" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
         <v>217968</v>
       </c>
@@ -70279,7 +70279,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1027" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
         <v>217969</v>
       </c>
@@ -70350,7 +70350,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1028" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
         <v>217970</v>
       </c>
@@ -70421,7 +70421,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1029" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>217971</v>
       </c>
@@ -70474,7 +70474,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1030" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
         <v>217972</v>
       </c>
@@ -70545,14 +70545,40 @@
         <v>178</v>
       </c>
     </row>
+    <row r="1032" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T1032">
+        <f>SUM(T1:T1030)</f>
+        <v>10171.030000000001</v>
+      </c>
+      <c r="U1032">
+        <f t="shared" ref="U1032:X1032" si="0">SUM(U1:U1030)</f>
+        <v>2768.4900000000107</v>
+      </c>
+      <c r="V1032">
+        <f t="shared" si="0"/>
+        <v>1015.0099999999991</v>
+      </c>
+      <c r="W1032">
+        <f t="shared" si="0"/>
+        <v>7923.5600000000113</v>
+      </c>
+      <c r="X1032">
+        <f t="shared" si="0"/>
+        <v>4604.1199999999953</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U1033">
+        <f>U1032/T1032</f>
+        <v>0.27219367163404401</v>
+      </c>
+      <c r="V1033">
+        <f>V1032/T1032</f>
+        <v>9.9794219464498582E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F1030">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -70560,787 +70586,637 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.15</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>1.75</v>
+      </c>
+      <c r="C3">
+        <v>27.13</v>
+      </c>
+      <c r="D3">
+        <v>21.68</v>
+      </c>
+      <c r="E3">
+        <v>6.2</v>
+      </c>
+      <c r="F3">
+        <v>2.78</v>
+      </c>
+      <c r="G3">
+        <v>25.13</v>
+      </c>
+      <c r="H3">
+        <v>21.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>7.25</v>
+      </c>
+      <c r="D4">
+        <v>9.32</v>
+      </c>
+      <c r="E4">
+        <v>2.71</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
+      <c r="G4">
+        <v>8.23</v>
+      </c>
+      <c r="H4">
+        <v>5.8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0.37</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.42</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>0.06</v>
+      </c>
+      <c r="G5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1.07</v>
+      </c>
+      <c r="C6">
+        <v>8.69</v>
+      </c>
+      <c r="D6">
+        <v>18.16</v>
+      </c>
+      <c r="E6">
+        <v>4.47</v>
+      </c>
+      <c r="F6">
+        <v>2.37</v>
+      </c>
+      <c r="G6">
+        <v>15.03</v>
+      </c>
+      <c r="H6">
+        <v>6.95</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>7.22</v>
+      </c>
+      <c r="D8">
+        <v>10.1</v>
+      </c>
+      <c r="E8">
+        <v>2.93</v>
+      </c>
+      <c r="F8">
+        <v>1.37</v>
+      </c>
+      <c r="G8">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H8">
+        <v>5.78</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>0.71</v>
+      </c>
+      <c r="C9">
+        <v>4.28</v>
+      </c>
+      <c r="D9">
+        <v>25.25</v>
+      </c>
+      <c r="E9">
+        <v>6.82</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
+      </c>
+      <c r="G9">
+        <v>13.59</v>
+      </c>
+      <c r="H9">
+        <v>3.42</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0.94</v>
+      </c>
+      <c r="C11">
+        <v>5.14</v>
+      </c>
+      <c r="D11">
+        <v>9.09</v>
+      </c>
+      <c r="E11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.96</v>
+      </c>
+      <c r="G11">
+        <v>8.73</v>
+      </c>
+      <c r="H11">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0.94</v>
+      </c>
+      <c r="C12">
+        <v>5.14</v>
+      </c>
+      <c r="D12">
+        <v>9.09</v>
+      </c>
+      <c r="E12">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12">
+        <v>8.73</v>
+      </c>
+      <c r="H12">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.41</v>
+      </c>
+      <c r="E13">
+        <v>0.09</v>
+      </c>
+      <c r="F13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.16</v>
+      </c>
+      <c r="H13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>85.22</v>
+      </c>
+      <c r="C14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.83</v>
+      </c>
+      <c r="E14">
+        <v>0.19</v>
+      </c>
+      <c r="F14">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <v>0.99</v>
+      </c>
+      <c r="H14">
+        <v>1.96</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0.86</v>
+      </c>
+      <c r="C15">
+        <v>4.67</v>
+      </c>
+      <c r="D15">
+        <v>8.76</v>
+      </c>
+      <c r="E15">
+        <v>2.37</v>
+      </c>
+      <c r="F15">
+        <v>0.91</v>
+      </c>
+      <c r="G15">
+        <v>8.23</v>
+      </c>
+      <c r="H15">
+        <v>3.74</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.83</v>
+      </c>
+      <c r="E16">
+        <v>0.19</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>0.99</v>
+      </c>
+      <c r="H16">
+        <v>1.94</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>1.42</v>
+      </c>
+      <c r="C17">
+        <v>49.62</v>
+      </c>
+      <c r="D17">
+        <v>130.49</v>
+      </c>
+      <c r="E17">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="F17">
+        <v>7.1</v>
+      </c>
+      <c r="G17">
+        <v>87.94</v>
+      </c>
+      <c r="H17">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>0.19</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>0.12</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <v>2.09</v>
+      </c>
+      <c r="E20">
+        <v>0.49</v>
+      </c>
+      <c r="F20">
+        <v>0.23</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>0.89</v>
+      </c>
+      <c r="C22">
+        <v>8.18</v>
+      </c>
+      <c r="D22">
+        <v>11.64</v>
+      </c>
+      <c r="E22">
+        <v>3.35</v>
+      </c>
+      <c r="F22">
+        <v>1.81</v>
+      </c>
+      <c r="G22">
+        <v>11.66</v>
+      </c>
+      <c r="H22">
+        <v>6.54</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>173.44</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:I23" si="0">SUM(C2:C22)</f>
+        <v>133.72</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>259.55</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>70.159999999999982</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>23.859999999999996</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>200.76</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>107.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>0.05</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>0.02</v>
-      </c>
-      <c r="K2">
-        <v>0.01</v>
-      </c>
-      <c r="L2">
-        <v>0.15</v>
-      </c>
-      <c r="M2">
-        <v>0.03</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>SUM(C2:C23)</f>
+        <v>267.44</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:I24" si="1">SUM(D2:D23)</f>
+        <v>519.1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>140.31999999999996</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>47.719999999999992</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>401.52</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>214.4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>1.75</v>
-      </c>
-      <c r="H3">
-        <v>27.13</v>
-      </c>
-      <c r="I3">
-        <v>21.68</v>
-      </c>
-      <c r="J3">
-        <v>6.2</v>
-      </c>
-      <c r="K3">
-        <v>2.78</v>
-      </c>
-      <c r="L3">
-        <v>25.13</v>
-      </c>
-      <c r="M3">
-        <v>21.7</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>0.63</v>
-      </c>
-      <c r="H4">
-        <v>7.25</v>
-      </c>
-      <c r="I4">
-        <v>9.32</v>
-      </c>
-      <c r="J4">
-        <v>2.71</v>
-      </c>
-      <c r="K4">
-        <v>1.3</v>
-      </c>
-      <c r="L4">
-        <v>8.23</v>
-      </c>
-      <c r="M4">
-        <v>5.8</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>0.37</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.42</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>0.06</v>
-      </c>
-      <c r="L5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.2</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6">
-        <v>1.07</v>
-      </c>
-      <c r="H6">
-        <v>8.69</v>
-      </c>
-      <c r="I6">
-        <v>18.16</v>
-      </c>
-      <c r="J6">
-        <v>4.47</v>
-      </c>
-      <c r="K6">
-        <v>2.37</v>
-      </c>
-      <c r="L6">
-        <v>15.03</v>
-      </c>
-      <c r="M6">
-        <v>6.95</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>0.7</v>
-      </c>
-      <c r="H8">
-        <v>7.22</v>
-      </c>
-      <c r="I8">
-        <v>10.1</v>
-      </c>
-      <c r="J8">
-        <v>2.93</v>
-      </c>
-      <c r="K8">
-        <v>1.37</v>
-      </c>
-      <c r="L8">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="M8">
-        <v>5.78</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>0.71</v>
-      </c>
-      <c r="H9">
-        <v>4.28</v>
-      </c>
-      <c r="I9">
-        <v>25.25</v>
-      </c>
-      <c r="J9">
-        <v>6.82</v>
-      </c>
-      <c r="K9">
-        <v>1.3</v>
-      </c>
-      <c r="L9">
-        <v>13.59</v>
-      </c>
-      <c r="M9">
-        <v>3.42</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>1.23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>0.94</v>
-      </c>
-      <c r="H11">
-        <v>5.14</v>
-      </c>
-      <c r="I11">
-        <v>9.09</v>
-      </c>
-      <c r="J11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K11">
-        <v>0.96</v>
-      </c>
-      <c r="L11">
-        <v>8.73</v>
-      </c>
-      <c r="M11">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>0.94</v>
-      </c>
-      <c r="H12">
-        <v>5.14</v>
-      </c>
-      <c r="I12">
-        <v>9.09</v>
-      </c>
-      <c r="J12">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K12">
-        <v>0.96</v>
-      </c>
-      <c r="L12">
-        <v>8.73</v>
-      </c>
-      <c r="M12">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>0.15</v>
-      </c>
-      <c r="H13">
-        <v>0.7</v>
-      </c>
-      <c r="I13">
-        <v>0.41</v>
-      </c>
-      <c r="J13">
-        <v>0.09</v>
-      </c>
-      <c r="K13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0.16</v>
-      </c>
-      <c r="M13">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14">
-        <v>85.22</v>
-      </c>
-      <c r="H14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I14">
-        <v>0.83</v>
-      </c>
-      <c r="J14">
-        <v>0.19</v>
-      </c>
-      <c r="K14">
-        <v>1.2</v>
-      </c>
-      <c r="L14">
-        <v>0.99</v>
-      </c>
-      <c r="M14">
-        <v>1.96</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>0.86</v>
-      </c>
-      <c r="H15">
-        <v>4.67</v>
-      </c>
-      <c r="I15">
-        <v>8.76</v>
-      </c>
-      <c r="J15">
-        <v>2.37</v>
-      </c>
-      <c r="K15">
-        <v>0.91</v>
-      </c>
-      <c r="L15">
-        <v>8.23</v>
-      </c>
-      <c r="M15">
-        <v>3.74</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="H16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="I16">
-        <v>0.83</v>
-      </c>
-      <c r="J16">
-        <v>0.19</v>
-      </c>
-      <c r="K16">
-        <v>1.2</v>
-      </c>
-      <c r="L16">
-        <v>0.99</v>
-      </c>
-      <c r="M16">
-        <v>1.94</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17">
-        <v>1.42</v>
-      </c>
-      <c r="H17">
-        <v>49.62</v>
-      </c>
-      <c r="I17">
-        <v>130.49</v>
-      </c>
-      <c r="J17">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="K17">
-        <v>7.1</v>
-      </c>
-      <c r="L17">
-        <v>87.94</v>
-      </c>
-      <c r="M17">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19">
-        <v>0.02</v>
-      </c>
-      <c r="H19">
-        <v>0.12</v>
-      </c>
-      <c r="I19">
-        <v>0.19</v>
-      </c>
-      <c r="J19">
-        <v>0.05</v>
-      </c>
-      <c r="K19">
-        <v>0.01</v>
-      </c>
-      <c r="L19">
-        <v>0.12</v>
-      </c>
-      <c r="M19">
-        <v>0.1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.7</v>
-      </c>
-      <c r="I20">
-        <v>2.09</v>
-      </c>
-      <c r="J20">
-        <v>0.49</v>
-      </c>
-      <c r="K20">
-        <v>0.23</v>
-      </c>
-      <c r="L20">
-        <v>0.75</v>
-      </c>
-      <c r="M20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22">
-        <v>0.89</v>
-      </c>
-      <c r="H22">
-        <v>8.18</v>
-      </c>
-      <c r="I22">
-        <v>11.64</v>
-      </c>
-      <c r="J22">
-        <v>3.35</v>
-      </c>
-      <c r="K22">
-        <v>1.81</v>
-      </c>
-      <c r="L22">
-        <v>11.66</v>
-      </c>
-      <c r="M22">
-        <v>6.54</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>E24/D24</f>
+        <v>0.27031400500866876</v>
+      </c>
+      <c r="F25">
+        <f>F24/D24</f>
+        <v>9.1928337507224026E-2</v>
       </c>
     </row>
   </sheetData>
